--- a/pred_ohlcv/54_21/2020-01-16 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 FAB ohlcv.xlsx
@@ -1406,7 +1406,7 @@
         <v>-563538.6232868443</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-767368.0012868444</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>220578.7772035572</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4092068.6085917</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>3911575.314952895</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2460752.677852895</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2498694.556330586</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2083342.320230586</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2072605.405230586</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1847929.207630587</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1776080.080930587</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1259044.862730587</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1278385.906130587</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1334286.931730587</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1244633.934330587</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1206106.177330587</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1143417.377730587</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1031027.679630587</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1005749.587030587</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 FAB ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-603775.5080190785</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-793757.2646408591</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-691156.2293408591</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-503723.2506408591</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-503723.2506408591</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-555270.5508868444</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-562347.2557868444</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-565450.8840868444</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-563538.6232868443</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-767368.0012868444</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>220578.7772035572</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4092068.6085917</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>3911575.314952895</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2460752.677852895</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2498694.556330586</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2083342.320230586</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1259044.862730587</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1278385.906130587</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1334286.931730587</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1244633.934330587</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1206106.177330587</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1143417.377730587</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1031027.679630587</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1005749.587030587</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
